--- a/Homework1/directions/stats.xlsx
+++ b/Homework1/directions/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divth\Documents\BU\Spring23\CS677 O2\Homework\HomeworkSubmissions\HomeworkSubmissions_CS677\Homework1\directions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19812A7B-6075-4DA1-A744-1F84BA13AE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A534ADBD-E8D7-4376-A1B3-B5555D6C443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FC28043D-B950-479F-BED0-A7B770808DD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC28043D-B950-479F-BED0-A7B770808DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="26">
   <si>
     <t>µ(R)</t>
   </si>
@@ -85,6 +85,36 @@
   <si>
     <t>SPY</t>
   </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>ensemble</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,16 +183,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +757,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -627,7 +784,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
@@ -656,7 +813,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$6</c15:sqref>
@@ -684,7 +841,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A965-4CE8-8C90-47947A1357D9}"/>
                   </c:ext>
@@ -697,7 +854,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1</c15:sqref>
@@ -724,7 +881,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
@@ -753,7 +910,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2:$E$6</c15:sqref>
@@ -781,7 +938,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A965-4CE8-8C90-47947A1357D9}"/>
                   </c:ext>
@@ -794,7 +951,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$1</c15:sqref>
@@ -821,7 +978,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
@@ -850,7 +1007,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$G$6</c15:sqref>
@@ -878,7 +1035,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A965-4CE8-8C90-47947A1357D9}"/>
                   </c:ext>
@@ -891,7 +1048,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -920,7 +1077,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
@@ -949,7 +1106,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$6</c15:sqref>
@@ -977,7 +1134,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A965-4CE8-8C90-47947A1357D9}"/>
                   </c:ext>
@@ -990,7 +1147,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -1019,7 +1176,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
@@ -1048,7 +1205,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$6</c15:sqref>
@@ -1076,7 +1233,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-A965-4CE8-8C90-47947A1357D9}"/>
                   </c:ext>
@@ -1697,7 +1854,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$8</c15:sqref>
@@ -1724,7 +1881,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$9:$A$13</c15:sqref>
@@ -1753,7 +1910,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$9:$D$13</c15:sqref>
@@ -1781,7 +1938,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0A42-4648-BCFD-3D9703F968CF}"/>
                   </c:ext>
@@ -1794,7 +1951,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$8</c15:sqref>
@@ -1821,7 +1978,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$9:$A$13</c15:sqref>
@@ -1850,7 +2007,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$9:$E$13</c15:sqref>
@@ -1878,7 +2035,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0A42-4648-BCFD-3D9703F968CF}"/>
                   </c:ext>
@@ -1891,7 +2048,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$8</c15:sqref>
@@ -1918,7 +2075,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$9:$A$13</c15:sqref>
@@ -1947,7 +2104,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$9:$G$13</c15:sqref>
@@ -1975,7 +2132,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0A42-4648-BCFD-3D9703F968CF}"/>
                   </c:ext>
@@ -1988,7 +2145,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$8</c15:sqref>
@@ -2017,7 +2174,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$9:$A$13</c15:sqref>
@@ -2046,7 +2203,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$9:$H$13</c15:sqref>
@@ -2074,7 +2231,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0A42-4648-BCFD-3D9703F968CF}"/>
                   </c:ext>
@@ -2087,7 +2244,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$8</c15:sqref>
@@ -2116,7 +2273,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$9:$A$13</c15:sqref>
@@ -2145,7 +2302,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$9:$J$13</c15:sqref>
@@ -2173,7 +2330,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-0A42-4648-BCFD-3D9703F968CF}"/>
                   </c:ext>
@@ -2794,7 +2951,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$15</c15:sqref>
@@ -2821,7 +2978,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$16:$A$20</c15:sqref>
@@ -2850,7 +3007,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$16:$D$20</c15:sqref>
@@ -2878,7 +3035,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-34AA-494B-8F20-7A244F4CF736}"/>
                   </c:ext>
@@ -2891,7 +3048,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$15</c15:sqref>
@@ -2918,7 +3075,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$16:$A$20</c15:sqref>
@@ -2947,7 +3104,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$16:$E$20</c15:sqref>
@@ -2975,7 +3132,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-34AA-494B-8F20-7A244F4CF736}"/>
                   </c:ext>
@@ -2988,7 +3145,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$15</c15:sqref>
@@ -3015,7 +3172,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$16:$A$20</c15:sqref>
@@ -3044,7 +3201,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$16:$G$20</c15:sqref>
@@ -3072,7 +3229,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-34AA-494B-8F20-7A244F4CF736}"/>
                   </c:ext>
@@ -3085,7 +3242,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$15</c15:sqref>
@@ -3114,7 +3271,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$16:$A$20</c15:sqref>
@@ -3143,7 +3300,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$16:$H$20</c15:sqref>
@@ -3171,7 +3328,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-34AA-494B-8F20-7A244F4CF736}"/>
                   </c:ext>
@@ -3184,7 +3341,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$15</c15:sqref>
@@ -3213,7 +3370,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$16:$A$20</c15:sqref>
@@ -3242,7 +3399,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$16:$J$20</c15:sqref>
@@ -3270,7 +3427,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-34AA-494B-8F20-7A244F4CF736}"/>
                   </c:ext>
@@ -3890,7 +4047,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$22</c15:sqref>
@@ -3917,7 +4074,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$27</c15:sqref>
@@ -3946,7 +4103,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$23:$D$27</c15:sqref>
@@ -3974,7 +4131,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E0D2-49A4-BD69-D2EB0E0B4980}"/>
                   </c:ext>
@@ -3987,7 +4144,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$22</c15:sqref>
@@ -4014,7 +4171,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$27</c15:sqref>
@@ -4043,7 +4200,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$23:$E$27</c15:sqref>
@@ -4071,7 +4228,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E0D2-49A4-BD69-D2EB0E0B4980}"/>
                   </c:ext>
@@ -4084,7 +4241,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$22</c15:sqref>
@@ -4111,7 +4268,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$27</c15:sqref>
@@ -4140,7 +4297,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$23:$G$27</c15:sqref>
@@ -4168,7 +4325,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E0D2-49A4-BD69-D2EB0E0B4980}"/>
                   </c:ext>
@@ -4181,7 +4338,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$22</c15:sqref>
@@ -4210,7 +4367,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$27</c15:sqref>
@@ -4239,7 +4396,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$23:$H$27</c15:sqref>
@@ -4267,7 +4424,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E0D2-49A4-BD69-D2EB0E0B4980}"/>
                   </c:ext>
@@ -4280,7 +4437,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$22</c15:sqref>
@@ -4309,7 +4466,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$27</c15:sqref>
@@ -4338,7 +4495,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$23:$J$27</c15:sqref>
@@ -4366,7 +4523,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E0D2-49A4-BD69-D2EB0E0B4980}"/>
                   </c:ext>
@@ -4988,7 +5145,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$29</c15:sqref>
@@ -5015,7 +5172,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$30:$A$34</c15:sqref>
@@ -5044,7 +5201,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$30:$D$34</c15:sqref>
@@ -5072,7 +5229,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-AC87-4E51-BC32-8048D7CE03E8}"/>
                   </c:ext>
@@ -5085,7 +5242,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$29</c15:sqref>
@@ -5112,7 +5269,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$30:$A$34</c15:sqref>
@@ -5141,7 +5298,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$30:$E$34</c15:sqref>
@@ -5169,7 +5326,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-AC87-4E51-BC32-8048D7CE03E8}"/>
                   </c:ext>
@@ -5182,7 +5339,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$29</c15:sqref>
@@ -5209,7 +5366,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$30:$A$34</c15:sqref>
@@ -5238,7 +5395,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$30:$G$34</c15:sqref>
@@ -5266,7 +5423,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-AC87-4E51-BC32-8048D7CE03E8}"/>
                   </c:ext>
@@ -5279,7 +5436,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$29</c15:sqref>
@@ -5308,7 +5465,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$30:$A$34</c15:sqref>
@@ -5337,7 +5494,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$30:$H$34</c15:sqref>
@@ -5365,7 +5522,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-AC87-4E51-BC32-8048D7CE03E8}"/>
                   </c:ext>
@@ -5378,7 +5535,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$29</c15:sqref>
@@ -5407,7 +5564,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$30:$A$34</c15:sqref>
@@ -5436,7 +5593,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$30:$J$34</c15:sqref>
@@ -5464,7 +5621,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-AC87-4E51-BC32-8048D7CE03E8}"/>
                   </c:ext>
@@ -8854,23 +9011,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58EE268-C042-4C03-8B7B-37E61374DDDA}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A68" activeCellId="1" sqref="A61:J66 A68:J73"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I107" sqref="A99:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
     <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10216,6 +10373,267 @@
         <v>9.1989706145384397E-5</v>
       </c>
     </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>2</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="7">
+        <v>255</v>
+      </c>
+      <c r="D100" s="7">
+        <v>246</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="H100" s="7">
+        <v>1</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
+        <v>3</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1">
+        <v>189</v>
+      </c>
+      <c r="D101" s="1">
+        <v>179</v>
+      </c>
+      <c r="E101" s="1">
+        <v>67</v>
+      </c>
+      <c r="F101" s="1">
+        <v>65</v>
+      </c>
+      <c r="G101" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.74409448818897606</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.27235772357723498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="13">
+        <v>4</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1">
+        <v>178</v>
+      </c>
+      <c r="D102" s="1">
+        <v>161</v>
+      </c>
+      <c r="E102" s="1">
+        <v>85</v>
+      </c>
+      <c r="F102" s="1">
+        <v>75</v>
+      </c>
+      <c r="G102" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.70355731225296403</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.34552845528455201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="8">
+        <v>208</v>
+      </c>
+      <c r="D103" s="8">
+        <v>197</v>
+      </c>
+      <c r="E103" s="8">
+        <v>49</v>
+      </c>
+      <c r="F103" s="8">
+        <v>47</v>
+      </c>
+      <c r="G103" s="8">
+        <v>51.09</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.81568627450980302</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0.19918699186991801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>2</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="7">
+        <v>179</v>
+      </c>
+      <c r="D104" s="7">
+        <v>182</v>
+      </c>
+      <c r="E104" s="7">
+        <v>61</v>
+      </c>
+      <c r="F104" s="7">
+        <v>79</v>
+      </c>
+      <c r="G104" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0.693798449612403</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0.251028806584362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="13">
+        <v>3</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1">
+        <v>222</v>
+      </c>
+      <c r="D105" s="1">
+        <v>217</v>
+      </c>
+      <c r="E105" s="1">
+        <v>26</v>
+      </c>
+      <c r="F105" s="1">
+        <v>35</v>
+      </c>
+      <c r="G105" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.86381322957198403</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0.106995884773662</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="13">
+        <v>4</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1">
+        <v>127</v>
+      </c>
+      <c r="D106" s="1">
+        <v>150</v>
+      </c>
+      <c r="E106" s="1">
+        <v>93</v>
+      </c>
+      <c r="F106" s="1">
+        <v>129</v>
+      </c>
+      <c r="G106" s="1">
+        <v>43.69</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.49609375</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.38271604938271597</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>199</v>
+      </c>
+      <c r="D107" s="1">
+        <v>204</v>
+      </c>
+      <c r="E107" s="1">
+        <v>39</v>
+      </c>
+      <c r="F107" s="1">
+        <v>59</v>
+      </c>
+      <c r="G107" s="1">
+        <v>47.32</v>
+      </c>
+      <c r="H107" s="6">
+        <v>0.77131782945736405</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.16049382716049301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Homework1/directions/stats.xlsx
+++ b/Homework1/directions/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divth\Documents\BU\Spring23\CS677 O2\Homework\HomeworkSubmissions\HomeworkSubmissions_CS677\Homework1\directions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A534ADBD-E8D7-4376-A1B3-B5555D6C443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74125E8F-AB69-4968-9951-78DF2AD5B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC28043D-B950-479F-BED0-A7B770808DD5}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{FC28043D-B950-479F-BED0-A7B770808DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
   <si>
     <t>µ(R)</t>
   </si>
@@ -114,6 +114,36 @@
   </si>
   <si>
     <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>µ(f1)</t>
+  </si>
+  <si>
+    <t>σ(f1)</t>
+  </si>
+  <si>
+    <t>µ(f2)</t>
+  </si>
+  <si>
+    <t>σ(f2)</t>
+  </si>
+  <si>
+    <t>µ(f3)</t>
+  </si>
+  <si>
+    <t>σ(f3)</t>
+  </si>
+  <si>
+    <t>µ(f4)</t>
+  </si>
+  <si>
+    <t>σ(f4)</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -295,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -314,6 +344,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9011,23 +9055,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58EE268-C042-4C03-8B7B-37E61374DDDA}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="I107" sqref="A99:I107"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10373,6 +10417,52 @@
         <v>9.1989706145384397E-5</v>
       </c>
     </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>377</v>
+      </c>
+      <c r="B95" s="7">
+        <v>0</v>
+      </c>
+      <c r="C95" s="7">
+        <v>301</v>
+      </c>
+      <c r="D95" s="7">
+        <v>8</v>
+      </c>
+      <c r="E95" s="23">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G95" s="7">
+        <v>1</v>
+      </c>
+    </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>16</v>
@@ -10632,6 +10722,122 @@
       </c>
       <c r="I107" s="1">
         <v>0.16049382716049301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="21">
+        <v>0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C111" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="D111" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="E111" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="F111" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G111" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="H111" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="I111" s="7">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="22">
+        <v>1</v>
+      </c>
+      <c r="B112" s="10">
+        <v>-1.87</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="D112" s="1">
+        <v>-0.99</v>
+      </c>
+      <c r="E112" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="H112" s="18">
+        <v>-1.25</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="E113" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="F113" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="G113" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H113" s="18">
+        <v>-1.19</v>
+      </c>
+      <c r="I113" s="18">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/Homework1/directions/stats.xlsx
+++ b/Homework1/directions/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divth\Documents\BU\Spring23\CS677 O2\Homework\HomeworkSubmissions\HomeworkSubmissions_CS677\Homework1\directions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divth\Documents\BU\Spring23\CS677 O2\Assignments\CS_677_Submissions\Homework1\directions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74125E8F-AB69-4968-9951-78DF2AD5B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286455D-14DD-4228-A1F4-F1AF4404709E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{FC28043D-B950-479F-BED0-A7B770808DD5}"/>
+    <workbookView xWindow="1416" yWindow="348" windowWidth="21624" windowHeight="11304" xr2:uid="{FC28043D-B950-479F-BED0-A7B770808DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="40">
   <si>
     <t>µ(R)</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>RF (N=9, d=5)</t>
   </si>
 </sst>
 </file>
@@ -8655,7 +8667,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -8685,13 +8697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -8727,7 +8739,7 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -9055,10 +9067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58EE268-C042-4C03-8B7B-37E61374DDDA}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93:S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9073,6 +9085,8 @@
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="5.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -10417,7 +10431,33 @@
         <v>9.1989706145384397E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L93" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O93" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S93" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
         <v>18</v>
       </c>
@@ -10439,8 +10479,32 @@
       <c r="G94" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="L94" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M94" s="7">
+        <v>760</v>
+      </c>
+      <c r="N94" s="7">
+        <v>195</v>
+      </c>
+      <c r="O94" s="7">
+        <v>39</v>
+      </c>
+      <c r="P94" s="7">
+        <v>69</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>75.16</v>
+      </c>
+      <c r="R94" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="S94" s="7">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>377</v>
       </c>
@@ -10462,381 +10526,431 @@
       <c r="G95" s="7">
         <v>1</v>
       </c>
+      <c r="L95" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M95" s="1">
+        <v>750</v>
+      </c>
+      <c r="N95" s="1">
+        <v>55</v>
+      </c>
+      <c r="O95" s="1">
+        <v>179</v>
+      </c>
+      <c r="P95" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>87.39</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="11" t="s">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L96" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" s="1">
+        <v>788</v>
+      </c>
+      <c r="N96" s="1">
+        <v>66</v>
+      </c>
+      <c r="O96" s="1">
+        <v>168</v>
+      </c>
+      <c r="P96" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>90.03</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B98" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C98" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D98" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E98" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F98" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G98" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H98" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I98" s="15" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>2</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="7">
+        <v>255</v>
+      </c>
+      <c r="D99" s="7">
+        <v>246</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="12">
-        <v>2</v>
-      </c>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="13">
+        <v>3</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="7">
-        <v>255</v>
-      </c>
-      <c r="D100" s="7">
-        <v>246</v>
-      </c>
-      <c r="E100" s="7">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7">
-        <v>0</v>
-      </c>
-      <c r="G100" s="7">
-        <v>50.7</v>
-      </c>
-      <c r="H100" s="7">
-        <v>1</v>
-      </c>
-      <c r="I100" s="7">
-        <v>0</v>
+      <c r="C100" s="1">
+        <v>189</v>
+      </c>
+      <c r="D100" s="1">
+        <v>179</v>
+      </c>
+      <c r="E100" s="1">
+        <v>67</v>
+      </c>
+      <c r="F100" s="1">
+        <v>65</v>
+      </c>
+      <c r="G100" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.74409448818897606</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.27235772357723498</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="1">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D101" s="1">
+        <v>161</v>
+      </c>
+      <c r="E101" s="1">
+        <v>85</v>
+      </c>
+      <c r="F101" s="1">
+        <v>75</v>
+      </c>
+      <c r="G101" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.70355731225296403</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.34552845528455201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="8">
+        <v>208</v>
+      </c>
+      <c r="D102" s="8">
+        <v>197</v>
+      </c>
+      <c r="E102" s="8">
+        <v>49</v>
+      </c>
+      <c r="F102" s="8">
+        <v>47</v>
+      </c>
+      <c r="G102" s="8">
+        <v>51.09</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0.81568627450980302</v>
+      </c>
+      <c r="I102" s="8">
+        <v>0.19918699186991801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>2</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="7">
         <v>179</v>
       </c>
-      <c r="E101" s="1">
-        <v>67</v>
-      </c>
-      <c r="F101" s="1">
-        <v>65</v>
-      </c>
-      <c r="G101" s="1">
-        <v>50.8</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0.74409448818897606</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0.27235772357723498</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
-        <v>4</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="1">
-        <v>178</v>
-      </c>
-      <c r="D102" s="1">
-        <v>161</v>
-      </c>
-      <c r="E102" s="1">
-        <v>85</v>
-      </c>
-      <c r="F102" s="1">
-        <v>75</v>
-      </c>
-      <c r="G102" s="1">
-        <v>52.3</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0.70355731225296403</v>
-      </c>
-      <c r="I102" s="1">
-        <v>0.34552845528455201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="8">
-        <v>208</v>
-      </c>
-      <c r="D103" s="8">
-        <v>197</v>
-      </c>
-      <c r="E103" s="8">
-        <v>49</v>
-      </c>
-      <c r="F103" s="8">
-        <v>47</v>
-      </c>
-      <c r="G103" s="8">
-        <v>51.09</v>
-      </c>
-      <c r="H103" s="8">
-        <v>0.81568627450980302</v>
-      </c>
-      <c r="I103" s="8">
-        <v>0.19918699186991801</v>
+      <c r="D103" s="7">
+        <v>182</v>
+      </c>
+      <c r="E103" s="7">
+        <v>61</v>
+      </c>
+      <c r="F103" s="7">
+        <v>79</v>
+      </c>
+      <c r="G103" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="H103" s="7">
+        <v>0.693798449612403</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0.251028806584362</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="12">
-        <v>2</v>
-      </c>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="13">
+        <v>3</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="7">
-        <v>179</v>
-      </c>
-      <c r="D104" s="7">
-        <v>182</v>
-      </c>
-      <c r="E104" s="7">
-        <v>61</v>
-      </c>
-      <c r="F104" s="7">
-        <v>79</v>
-      </c>
-      <c r="G104" s="7">
-        <v>47.9</v>
-      </c>
-      <c r="H104" s="7">
-        <v>0.693798449612403</v>
-      </c>
-      <c r="I104" s="7">
-        <v>0.251028806584362</v>
+      <c r="C104" s="1">
+        <v>222</v>
+      </c>
+      <c r="D104" s="1">
+        <v>217</v>
+      </c>
+      <c r="E104" s="1">
+        <v>26</v>
+      </c>
+      <c r="F104" s="1">
+        <v>35</v>
+      </c>
+      <c r="G104" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.86381322957198403</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0.106995884773662</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="1">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="D105" s="1">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="E105" s="1">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F105" s="1">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="G105" s="1">
-        <v>49.2</v>
+        <v>43.69</v>
       </c>
       <c r="H105" s="1">
-        <v>0.86381322957198403</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0.106995884773662</v>
+        <v>0.49609375</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.38271604938271597</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
-        <v>4</v>
+      <c r="A106" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="1">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="D106" s="1">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E106" s="1">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="F106" s="1">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="G106" s="1">
-        <v>43.69</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0.49609375</v>
+        <v>47.32</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.77131782945736405</v>
       </c>
       <c r="I106" s="1">
-        <v>0.38271604938271597</v>
+        <v>0.16049382716049301</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="1">
-        <v>199</v>
-      </c>
-      <c r="D107" s="1">
-        <v>204</v>
-      </c>
-      <c r="E107" s="1">
-        <v>39</v>
-      </c>
-      <c r="F107" s="1">
-        <v>59</v>
-      </c>
-      <c r="G107" s="1">
-        <v>47.32</v>
-      </c>
-      <c r="H107" s="6">
-        <v>0.77131782945736405</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0.16049382716049301</v>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I110" s="16" t="s">
-        <v>34</v>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <v>0</v>
+      </c>
+      <c r="B110" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C110" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="D110" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="E110" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="F110" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G110" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="H110" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="I110" s="7">
+        <v>2.12</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="21">
-        <v>0</v>
-      </c>
-      <c r="B111" s="5">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="C111" s="7">
-        <v>2.02</v>
-      </c>
-      <c r="D111" s="7">
-        <v>4.26</v>
-      </c>
-      <c r="E111" s="7">
-        <v>5.14</v>
-      </c>
-      <c r="F111" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="G111" s="7">
-        <v>3.24</v>
-      </c>
-      <c r="H111" s="19">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="I111" s="7">
-        <v>2.12</v>
+      <c r="A111" s="22">
+        <v>1</v>
+      </c>
+      <c r="B111" s="10">
+        <v>-1.87</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="D111" s="1">
+        <v>-0.99</v>
+      </c>
+      <c r="E111" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="H111" s="18">
+        <v>-1.25</v>
+      </c>
+      <c r="I111" s="1">
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="22">
-        <v>1</v>
+      <c r="A112" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="B112" s="10">
-        <v>-1.87</v>
+        <v>0.43</v>
       </c>
       <c r="C112" s="1">
-        <v>1.88</v>
+        <v>2.84</v>
       </c>
       <c r="D112" s="1">
-        <v>-0.99</v>
-      </c>
-      <c r="E112" s="18">
-        <v>5.4</v>
-      </c>
-      <c r="F112" s="1">
-        <v>2.15</v>
+        <v>1.92</v>
+      </c>
+      <c r="E112" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="F112" s="18">
+        <v>1.4</v>
       </c>
       <c r="G112" s="1">
-        <v>5.26</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="H112" s="18">
-        <v>-1.25</v>
-      </c>
-      <c r="I112" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2.84</v>
-      </c>
-      <c r="D113" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="E113" s="1">
-        <v>5.87</v>
-      </c>
-      <c r="F113" s="18">
-        <v>1.4</v>
-      </c>
-      <c r="G113" s="1">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="H113" s="18">
         <v>-1.19</v>
       </c>
-      <c r="I113" s="18">
+      <c r="I112" s="18">
         <v>2.1</v>
       </c>
     </row>
